--- a/Информация о проходах/Федотов Александр Петрович.xlsx
+++ b/Информация о проходах/Федотов Александр Петрович.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 09:00:30</t>
+          <t>2024-05-13 09:00:11</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 09:00:44</t>
+          <t>2024-05-13 09:02:03</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-03 10:21:29</t>
+          <t>2024-05-14 09:51:21</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-06-03 10:36:00</t>
+          <t>2024-05-17 15:59:50</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-06-03 10:38:13</t>
+          <t>2024-06-03 09:00:30</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-06-03 10:46:06</t>
+          <t>2024-06-03 09:00:44</t>
         </is>
       </c>
     </row>
@@ -631,17 +631,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-06-03 13:47:52</t>
+          <t>2024-06-03 10:21:29</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-06-04 10:22:03</t>
+          <t>2024-06-03 10:36:00</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-06-04 14:01:53</t>
+          <t>2024-06-03 10:38:13</t>
         </is>
       </c>
     </row>
@@ -727,15 +727,143 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-06-03 10:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-06-03 13:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-06-04 10:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-06-04 14:01:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>2024-06-04 14:01:54</t>
         </is>

--- a/Информация о проходах/Федотов Александр Петрович.xlsx
+++ b/Информация о проходах/Федотов Александр Петрович.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-13 09:00:11</t>
+          <t>2024-06-03 09:00:30</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-13 09:02:03</t>
+          <t>2024-06-03 09:00:44</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-14 09:51:21</t>
+          <t>2024-06-03 10:21:29</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-17 15:59:50</t>
+          <t>2024-06-03 10:36:00</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-06-03 09:00:30</t>
+          <t>2024-06-03 10:38:13</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-06-03 09:00:44</t>
+          <t>2024-06-03 10:46:06</t>
         </is>
       </c>
     </row>
@@ -631,17 +631,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-06-03 10:21:29</t>
+          <t>2024-06-03 13:47:52</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-06-03 10:36:00</t>
+          <t>2024-06-04 10:22:03</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-06-03 10:38:13</t>
+          <t>2024-06-04 14:01:53</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-06-03 10:46:06</t>
+          <t>2024-06-04 14:01:54</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-06-03 13:47:52</t>
+          <t>2024-06-05 10:41:35</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-06-04 10:22:03</t>
+          <t>2024-06-06 12:03:35</t>
         </is>
       </c>
     </row>
@@ -823,17 +823,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-06-04 14:01:53</t>
+          <t>2024-06-06 12:04:00</t>
         </is>
       </c>
     </row>
@@ -855,17 +855,273 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-06-04 14:01:54</t>
+          <t>2024-06-06 12:04:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:11:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-06-19 11:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-06-19 11:16:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-06-24 08:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-06-24 10:05:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-06-28 10:58:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-07-01 08:20:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Федотов Александр Петрович</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Подразделение главного энергетика</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-07-02 08:21:55</t>
         </is>
       </c>
     </row>
